--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="4" r:id="rId1"/>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
